--- a/data/924/SSE/SSE Main Board - Daily.xlsx
+++ b/data/924/SSE/SSE Main Board - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IYM3"/>
+  <dimension ref="A1:IYQ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34089,15 +34089,35 @@
       </c>
       <c r="IYK1" s="1" t="inlineStr">
         <is>
+          <t>2022-03-30</t>
+        </is>
+      </c>
+      <c r="IYL1" s="1" t="inlineStr">
+        <is>
+          <t>2022-03-31</t>
+        </is>
+      </c>
+      <c r="IYM1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-01</t>
+        </is>
+      </c>
+      <c r="IYN1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
+      <c r="IYO1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="IYL1" s="1" t="inlineStr">
+      <c r="IYP1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="IYM1" s="1" t="inlineStr">
+      <c r="IYQ1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -53416,17 +53436,29 @@
       <c r="IYJ2" t="n">
         <v>277.52</v>
       </c>
-      <c r="IYK2" t="inlineStr">
+      <c r="IYK2" t="n">
+        <v>282.15</v>
+      </c>
+      <c r="IYL2" t="n">
+        <v>283.03</v>
+      </c>
+      <c r="IYM2" t="n">
+        <v>285.94</v>
+      </c>
+      <c r="IYN2" t="n">
+        <v>286.63</v>
+      </c>
+      <c r="IYO2" t="inlineStr">
         <is>
           <t>SSEB</t>
         </is>
       </c>
-      <c r="IYL2" t="inlineStr">
+      <c r="IYP2" t="inlineStr">
         <is>
           <t>Shanghai Stock Exchange Main Board, B Share Index, Close Price</t>
         </is>
       </c>
-      <c r="IYM2" t="inlineStr">
+      <c r="IYQ2" t="inlineStr">
         <is>
           <t>Index: 1992.01.21=100</t>
         </is>
@@ -72781,17 +72813,29 @@
       <c r="IYJ3" t="n">
         <v>3357.02</v>
       </c>
-      <c r="IYK3" t="inlineStr">
+      <c r="IYK3" t="n">
+        <v>3423.74</v>
+      </c>
+      <c r="IYL3" t="n">
+        <v>3409.1</v>
+      </c>
+      <c r="IYM3" t="n">
+        <v>3440.64</v>
+      </c>
+      <c r="IYN3" t="n">
+        <v>3433.24</v>
+      </c>
+      <c r="IYO3" t="inlineStr">
         <is>
           <t>SSEA</t>
         </is>
       </c>
-      <c r="IYL3" t="inlineStr">
+      <c r="IYP3" t="inlineStr">
         <is>
           <t>Shanghai Stock Exchange Main Board, A Share Index, Close Price</t>
         </is>
       </c>
-      <c r="IYM3" t="inlineStr">
+      <c r="IYQ3" t="inlineStr">
         <is>
           <t>Index: 1992.01.21=100</t>
         </is>

--- a/data/924/SSE/SSE Main Board - Daily.xlsx
+++ b/data/924/SSE/SSE Main Board - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IYQ3"/>
+  <dimension ref="A1:IZA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34109,15 +34109,65 @@
       </c>
       <c r="IYO1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-07</t>
+        </is>
+      </c>
+      <c r="IYP1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-08</t>
+        </is>
+      </c>
+      <c r="IYQ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="IYR1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="IYS1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-13</t>
+        </is>
+      </c>
+      <c r="IYT1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-14</t>
+        </is>
+      </c>
+      <c r="IYU1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="IYV1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-18</t>
+        </is>
+      </c>
+      <c r="IYW1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-19</t>
+        </is>
+      </c>
+      <c r="IYX1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-20</t>
+        </is>
+      </c>
+      <c r="IYY1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="IYP1" s="1" t="inlineStr">
+      <c r="IYZ1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="IYQ1" s="1" t="inlineStr">
+      <c r="IZA1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -53446,19 +53496,49 @@
         <v>285.94</v>
       </c>
       <c r="IYN2" t="n">
-        <v>286.63</v>
-      </c>
-      <c r="IYO2" t="inlineStr">
+        <v>290.53</v>
+      </c>
+      <c r="IYO2" t="n">
+        <v>286.94</v>
+      </c>
+      <c r="IYP2" t="n">
+        <v>288.94</v>
+      </c>
+      <c r="IYQ2" t="n">
+        <v>286.44</v>
+      </c>
+      <c r="IYR2" t="n">
+        <v>289.17</v>
+      </c>
+      <c r="IYS2" t="n">
+        <v>291.28</v>
+      </c>
+      <c r="IYT2" t="n">
+        <v>292.26</v>
+      </c>
+      <c r="IYU2" t="n">
+        <v>288.25</v>
+      </c>
+      <c r="IYV2" t="n">
+        <v>290.84</v>
+      </c>
+      <c r="IYW2" t="n">
+        <v>294.11</v>
+      </c>
+      <c r="IYX2" t="n">
+        <v>290.36</v>
+      </c>
+      <c r="IYY2" t="inlineStr">
         <is>
           <t>SSEB</t>
         </is>
       </c>
-      <c r="IYP2" t="inlineStr">
+      <c r="IYZ2" t="inlineStr">
         <is>
           <t>Shanghai Stock Exchange Main Board, B Share Index, Close Price</t>
         </is>
       </c>
-      <c r="IYQ2" t="inlineStr">
+      <c r="IZA2" t="inlineStr">
         <is>
           <t>Index: 1992.01.21=100</t>
         </is>
@@ -72823,19 +72903,49 @@
         <v>3440.64</v>
       </c>
       <c r="IYN3" t="n">
-        <v>3433.24</v>
-      </c>
-      <c r="IYO3" t="inlineStr">
+        <v>3441.33</v>
+      </c>
+      <c r="IYO3" t="n">
+        <v>3392.36</v>
+      </c>
+      <c r="IYP3" t="n">
+        <v>3408.23</v>
+      </c>
+      <c r="IYQ3" t="n">
+        <v>3319.34</v>
+      </c>
+      <c r="IYR3" t="n">
+        <v>3367.82</v>
+      </c>
+      <c r="IYS3" t="n">
+        <v>3339.98</v>
+      </c>
+      <c r="IYT3" t="n">
+        <v>3380.73</v>
+      </c>
+      <c r="IYU3" t="n">
+        <v>3365.69</v>
+      </c>
+      <c r="IYV3" t="n">
+        <v>3349.13</v>
+      </c>
+      <c r="IYW3" t="n">
+        <v>3347.55</v>
+      </c>
+      <c r="IYX3" t="n">
+        <v>3302.51</v>
+      </c>
+      <c r="IYY3" t="inlineStr">
         <is>
           <t>SSEA</t>
         </is>
       </c>
-      <c r="IYP3" t="inlineStr">
+      <c r="IYZ3" t="inlineStr">
         <is>
           <t>Shanghai Stock Exchange Main Board, A Share Index, Close Price</t>
         </is>
       </c>
-      <c r="IYQ3" t="inlineStr">
+      <c r="IZA3" t="inlineStr">
         <is>
           <t>Index: 1992.01.21=100</t>
         </is>
